--- a/Temp/b1/TestDataDB/TestData.xlsx
+++ b/Temp/b1/TestDataDB/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Databinding</t>
   </si>
@@ -43,7 +43,13 @@
     <t>https://www.google.co.in/</t>
   </si>
   <si>
-    <t>firefox</t>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>GoogleSearch</t>
+  </si>
+  <si>
+    <t>GitHub</t>
   </si>
 </sst>
 </file>
@@ -454,10 +460,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,9 +471,10 @@
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,8 +490,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -496,20 +506,23 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="2"/>
       <c r="C5" s="8"/>
